--- a/regionseng/4/standard of living/expenditures.xlsx
+++ b/regionseng/4/standard of living/expenditures.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12435"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11730"/>
   </bookViews>
   <sheets>
     <sheet name="1" sheetId="1" r:id="rId1"/>
@@ -151,7 +151,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="3">
     <numFmt numFmtId="164" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="165" formatCode="#,##0.0"/>
@@ -305,7 +305,7 @@
     <xf numFmtId="164" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -359,18 +359,6 @@
     <xf numFmtId="166" fontId="8" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="5" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="165" fontId="8" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -394,6 +382,21 @@
     </xf>
     <xf numFmtId="165" fontId="8" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="5" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="8">
@@ -706,36 +709,39 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L67"/>
+  <dimension ref="A1:N67"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:L1"/>
+      <selection sqref="A1:N1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="50.7109375" style="1" customWidth="1"/>
     <col min="2" max="9" width="9.140625" style="1" customWidth="1"/>
-    <col min="10" max="16384" width="9.140625" style="1"/>
+    <col min="10" max="13" width="9.140625" style="1"/>
+    <col min="15" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="30" customHeight="1">
-      <c r="A1" s="17" t="s">
+    <row r="1" spans="1:14" ht="30" customHeight="1">
+      <c r="A1" s="26" t="s">
         <v>18</v>
       </c>
-      <c r="B1" s="17"/>
-      <c r="C1" s="17"/>
-      <c r="D1" s="17"/>
-      <c r="E1" s="17"/>
-      <c r="F1" s="17"/>
-      <c r="G1" s="17"/>
-      <c r="H1" s="17"/>
-      <c r="I1" s="17"/>
-      <c r="J1" s="17"/>
-      <c r="K1" s="17"/>
-      <c r="L1" s="17"/>
-    </row>
-    <row r="2" spans="1:12" ht="15" customHeight="1">
+      <c r="B1" s="26"/>
+      <c r="C1" s="26"/>
+      <c r="D1" s="26"/>
+      <c r="E1" s="26"/>
+      <c r="F1" s="26"/>
+      <c r="G1" s="26"/>
+      <c r="H1" s="26"/>
+      <c r="I1" s="26"/>
+      <c r="J1" s="26"/>
+      <c r="K1" s="26"/>
+      <c r="L1" s="26"/>
+      <c r="M1" s="26"/>
+      <c r="N1" s="26"/>
+    </row>
+    <row r="2" spans="1:14" ht="15" customHeight="1">
       <c r="A2" s="3"/>
       <c r="B2" s="7">
         <v>2011</v>
@@ -770,8 +776,14 @@
       <c r="L2" s="8">
         <v>2021</v>
       </c>
-    </row>
-    <row r="3" spans="1:12" ht="15" customHeight="1">
+      <c r="M2" s="8">
+        <v>2022</v>
+      </c>
+      <c r="N2" s="29">
+        <v>2023</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" ht="15" customHeight="1">
       <c r="A3" s="9" t="s">
         <v>11</v>
       </c>
@@ -805,11 +817,17 @@
       <c r="K3" s="13">
         <v>70.127125400540905</v>
       </c>
-      <c r="L3" s="21">
+      <c r="L3" s="13">
         <v>77.337950690395019</v>
       </c>
-    </row>
-    <row r="4" spans="1:12" ht="15" customHeight="1">
+      <c r="M3" s="17">
+        <v>100.26482229934375</v>
+      </c>
+      <c r="N3" s="21">
+        <v>123.93527974552532</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" ht="15" customHeight="1">
       <c r="A4" s="9" t="s">
         <v>12</v>
       </c>
@@ -843,11 +861,17 @@
       <c r="K4" s="14">
         <v>64.32427681017603</v>
       </c>
-      <c r="L4" s="22">
+      <c r="L4" s="14">
         <v>70.519164358051981</v>
       </c>
-    </row>
-    <row r="5" spans="1:12" ht="15" customHeight="1">
+      <c r="M4" s="18">
+        <v>93.804055637440797</v>
+      </c>
+      <c r="N4" s="22">
+        <v>114.44791720551478</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" ht="15" customHeight="1">
       <c r="A5" s="10" t="s">
         <v>0</v>
       </c>
@@ -881,11 +905,17 @@
       <c r="K5" s="15">
         <v>27.109678813348296</v>
       </c>
-      <c r="L5" s="23">
+      <c r="L5" s="15">
         <v>30.809302076072928</v>
       </c>
-    </row>
-    <row r="6" spans="1:12" ht="15" customHeight="1">
+      <c r="M5" s="19">
+        <v>36.952324044870274</v>
+      </c>
+      <c r="N5" s="23">
+        <v>40.144734194800996</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" ht="15" customHeight="1">
       <c r="A6" s="10" t="s">
         <v>1</v>
       </c>
@@ -919,11 +949,17 @@
       <c r="K6" s="15">
         <v>2.2071511569226585</v>
       </c>
-      <c r="L6" s="23">
+      <c r="L6" s="15">
         <v>2.4579830596453345</v>
       </c>
-    </row>
-    <row r="7" spans="1:12" ht="15" customHeight="1">
+      <c r="M6" s="19">
+        <v>4.2895426253704985</v>
+      </c>
+      <c r="N6" s="23">
+        <v>5.9455457170842498</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" ht="15" customHeight="1">
       <c r="A7" s="10" t="s">
         <v>2</v>
       </c>
@@ -957,11 +993,17 @@
       <c r="K7" s="15">
         <v>1.7257407862885117</v>
       </c>
-      <c r="L7" s="23">
+      <c r="L7" s="15">
         <v>1.9135424655087998</v>
       </c>
-    </row>
-    <row r="8" spans="1:12" ht="15" customHeight="1">
+      <c r="M7" s="19">
+        <v>3.3625287838461864</v>
+      </c>
+      <c r="N7" s="23">
+        <v>4.4824460378552731</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" ht="15" customHeight="1">
       <c r="A8" s="10" t="s">
         <v>3</v>
       </c>
@@ -995,11 +1037,17 @@
       <c r="K8" s="15">
         <v>7.1423361163152048</v>
       </c>
-      <c r="L8" s="23">
+      <c r="L8" s="15">
         <v>8.7221884631805437</v>
       </c>
-    </row>
-    <row r="9" spans="1:12" ht="15" customHeight="1">
+      <c r="M8" s="19">
+        <v>10.904892190021259</v>
+      </c>
+      <c r="N8" s="23">
+        <v>16.143445278161462</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" ht="15" customHeight="1">
       <c r="A9" s="11" t="s">
         <v>17</v>
       </c>
@@ -1033,11 +1081,17 @@
       <c r="K9" s="15">
         <v>8.8730669212535851</v>
       </c>
-      <c r="L9" s="23">
+      <c r="L9" s="15">
         <v>8.9601763050700907</v>
       </c>
-    </row>
-    <row r="10" spans="1:12" ht="15" customHeight="1">
+      <c r="M9" s="19">
+        <v>12.344891463439943</v>
+      </c>
+      <c r="N9" s="23">
+        <v>13.998822644036697</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" ht="15" customHeight="1">
       <c r="A10" s="10" t="s">
         <v>4</v>
       </c>
@@ -1071,11 +1125,17 @@
       <c r="K10" s="15">
         <v>6.5531755019933611</v>
       </c>
-      <c r="L10" s="23">
+      <c r="L10" s="15">
         <v>7.7125484195599556</v>
       </c>
-    </row>
-    <row r="11" spans="1:12" ht="15" customHeight="1">
+      <c r="M10" s="19">
+        <v>9.7531621590176041</v>
+      </c>
+      <c r="N10" s="23">
+        <v>13.65626519152138</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" ht="15" customHeight="1">
       <c r="A11" s="10" t="s">
         <v>5</v>
       </c>
@@ -1109,11 +1169,17 @@
       <c r="K11" s="15">
         <v>1.6841784891942344</v>
       </c>
-      <c r="L11" s="23">
+      <c r="L11" s="15">
         <v>2.1034724118436179</v>
       </c>
-    </row>
-    <row r="12" spans="1:12" ht="15" customHeight="1">
+      <c r="M11" s="19">
+        <v>3.2426758786010734</v>
+      </c>
+      <c r="N11" s="23">
+        <v>4.8826800709889717</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14" ht="15" customHeight="1">
       <c r="A12" s="10" t="s">
         <v>6</v>
       </c>
@@ -1147,11 +1213,17 @@
       <c r="K12" s="15">
         <v>9.0289490248601876</v>
       </c>
-      <c r="L12" s="23">
+      <c r="L12" s="15">
         <v>7.8399511571707308</v>
       </c>
-    </row>
-    <row r="13" spans="1:12" ht="15" customHeight="1">
+      <c r="M12" s="19">
+        <v>12.954038492273956</v>
+      </c>
+      <c r="N12" s="23">
+        <v>15.193978071065764</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" ht="15" customHeight="1">
       <c r="A13" s="9" t="s">
         <v>13</v>
       </c>
@@ -1185,11 +1257,17 @@
       <c r="K13" s="14">
         <v>5.8028485903648725</v>
       </c>
-      <c r="L13" s="22">
+      <c r="L13" s="14">
         <v>6.8187863323430209</v>
       </c>
-    </row>
-    <row r="14" spans="1:12" ht="15" customHeight="1">
+      <c r="M13" s="18">
+        <v>6.4607666619029533</v>
+      </c>
+      <c r="N13" s="22">
+        <v>9.4873625400105244</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" ht="15" customHeight="1">
       <c r="A14" s="9" t="s">
         <v>14</v>
       </c>
@@ -1223,11 +1301,17 @@
       <c r="K14" s="14">
         <v>19.506374979960125</v>
       </c>
-      <c r="L14" s="22">
+      <c r="L14" s="14">
         <v>24.446919914021812</v>
       </c>
-    </row>
-    <row r="15" spans="1:12" ht="15" customHeight="1">
+      <c r="M14" s="18">
+        <v>31.321922627141319</v>
+      </c>
+      <c r="N14" s="22">
+        <v>40.567275984044393</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" ht="15" customHeight="1">
       <c r="A15" s="10" t="s">
         <v>7</v>
       </c>
@@ -1261,11 +1345,17 @@
       <c r="K15" s="15">
         <v>0.94976792792256681</v>
       </c>
-      <c r="L15" s="23">
+      <c r="L15" s="15">
         <v>1.0064333727404275</v>
       </c>
-    </row>
-    <row r="16" spans="1:12" ht="15" customHeight="1">
+      <c r="M15" s="19">
+        <v>1.508218394515991</v>
+      </c>
+      <c r="N15" s="23">
+        <v>1.9151354547475181</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14" ht="15" customHeight="1">
       <c r="A16" s="10" t="s">
         <v>8</v>
       </c>
@@ -1299,11 +1389,17 @@
       <c r="K16" s="15">
         <v>1.3770142930857339</v>
       </c>
-      <c r="L16" s="23">
+      <c r="L16" s="15">
         <v>0.98306567648569754</v>
       </c>
-    </row>
-    <row r="17" spans="1:12" ht="15" customHeight="1">
+      <c r="M16" s="19">
+        <v>2.3485292572123213</v>
+      </c>
+      <c r="N16" s="23">
+        <v>3.2517483010889685</v>
+      </c>
+    </row>
+    <row r="17" spans="1:14" ht="15" customHeight="1">
       <c r="A17" s="10" t="s">
         <v>9</v>
       </c>
@@ -1337,11 +1433,17 @@
       <c r="K17" s="15">
         <v>15.877917019905091</v>
       </c>
-      <c r="L17" s="23">
+      <c r="L17" s="15">
         <v>17.886450634705866</v>
       </c>
-    </row>
-    <row r="18" spans="1:12" ht="15" customHeight="1">
+      <c r="M17" s="19">
+        <v>25.705891512354533</v>
+      </c>
+      <c r="N17" s="23">
+        <v>30.92545862725067</v>
+      </c>
+    </row>
+    <row r="18" spans="1:14" ht="15" customHeight="1">
       <c r="A18" s="10" t="s">
         <v>10</v>
       </c>
@@ -1375,11 +1477,17 @@
       <c r="K18" s="15">
         <v>1.3016757390467326</v>
       </c>
-      <c r="L18" s="23">
+      <c r="L18" s="15">
         <v>4.5709702300898236</v>
       </c>
-    </row>
-    <row r="19" spans="1:12" ht="15" customHeight="1">
+      <c r="M18" s="19">
+        <v>1.7592834630584719</v>
+      </c>
+      <c r="N18" s="23">
+        <v>4.4749336009572334</v>
+      </c>
+    </row>
+    <row r="19" spans="1:14" ht="15" customHeight="1">
       <c r="A19" s="9" t="s">
         <v>15</v>
       </c>
@@ -1413,11 +1521,17 @@
       <c r="K19" s="14">
         <v>83.830651790136173</v>
       </c>
-      <c r="L19" s="22">
+      <c r="L19" s="14">
         <v>94.966084272073815</v>
       </c>
-    </row>
-    <row r="20" spans="1:12" ht="15" customHeight="1">
+      <c r="M19" s="18">
+        <v>125.1259782645821</v>
+      </c>
+      <c r="N19" s="22">
+        <v>155.0151931895592</v>
+      </c>
+    </row>
+    <row r="20" spans="1:14" ht="15" customHeight="1">
       <c r="A20" s="12" t="s">
         <v>16</v>
       </c>
@@ -1451,11 +1565,17 @@
       <c r="K20" s="16">
         <v>89.633500380501047</v>
       </c>
-      <c r="L20" s="24">
+      <c r="L20" s="16">
         <v>101.78487060441684</v>
       </c>
-    </row>
-    <row r="21" spans="1:12">
+      <c r="M20" s="20">
+        <v>131.58674492648507</v>
+      </c>
+      <c r="N20" s="24">
+        <v>164.50255572956971</v>
+      </c>
+    </row>
+    <row r="21" spans="1:14">
       <c r="A21" s="2"/>
       <c r="B21" s="2"/>
       <c r="C21" s="2"/>
@@ -1466,7 +1586,7 @@
       <c r="H21" s="2"/>
       <c r="I21" s="2"/>
     </row>
-    <row r="22" spans="1:12">
+    <row r="22" spans="1:14">
       <c r="A22" s="2"/>
       <c r="B22" s="2"/>
       <c r="C22" s="2"/>
@@ -1477,23 +1597,25 @@
       <c r="H22" s="2"/>
       <c r="I22" s="2"/>
     </row>
-    <row r="23" spans="1:12" ht="30" customHeight="1">
-      <c r="A23" s="17" t="s">
+    <row r="23" spans="1:14" ht="30" customHeight="1">
+      <c r="A23" s="26" t="s">
         <v>19</v>
       </c>
-      <c r="B23" s="17"/>
-      <c r="C23" s="17"/>
-      <c r="D23" s="17"/>
-      <c r="E23" s="17"/>
-      <c r="F23" s="17"/>
-      <c r="G23" s="17"/>
-      <c r="H23" s="17"/>
-      <c r="I23" s="17"/>
-      <c r="J23" s="17"/>
-      <c r="K23" s="17"/>
-      <c r="L23" s="17"/>
-    </row>
-    <row r="24" spans="1:12" ht="15" customHeight="1">
+      <c r="B23" s="26"/>
+      <c r="C23" s="26"/>
+      <c r="D23" s="26"/>
+      <c r="E23" s="26"/>
+      <c r="F23" s="26"/>
+      <c r="G23" s="26"/>
+      <c r="H23" s="26"/>
+      <c r="I23" s="26"/>
+      <c r="J23" s="26"/>
+      <c r="K23" s="26"/>
+      <c r="L23" s="26"/>
+      <c r="M23" s="26"/>
+      <c r="N23" s="26"/>
+    </row>
+    <row r="24" spans="1:14" ht="15" customHeight="1">
       <c r="A24" s="3"/>
       <c r="B24" s="7">
         <v>2011</v>
@@ -1528,8 +1650,14 @@
       <c r="L24" s="8">
         <v>2021</v>
       </c>
-    </row>
-    <row r="25" spans="1:12" ht="15" customHeight="1">
+      <c r="M24" s="8">
+        <v>2022</v>
+      </c>
+      <c r="N24" s="29">
+        <v>2023</v>
+      </c>
+    </row>
+    <row r="25" spans="1:14" ht="15" customHeight="1">
       <c r="A25" s="9" t="s">
         <v>11</v>
       </c>
@@ -1563,11 +1691,17 @@
       <c r="K25" s="13">
         <v>847.43288745330449</v>
       </c>
-      <c r="L25" s="21">
+      <c r="L25" s="13">
         <v>893.07049981190153</v>
       </c>
-    </row>
-    <row r="26" spans="1:12" ht="15" customHeight="1">
+      <c r="M25" s="17">
+        <v>1094.4796123344074</v>
+      </c>
+      <c r="N25" s="21">
+        <v>1312.1111309440512</v>
+      </c>
+    </row>
+    <row r="26" spans="1:14" ht="15" customHeight="1">
       <c r="A26" s="9" t="s">
         <v>12</v>
       </c>
@@ -1601,11 +1735,17 @@
       <c r="K26" s="14">
         <v>777.30988286271111</v>
       </c>
-      <c r="L26" s="22">
+      <c r="L26" s="14">
         <v>814.32963761457336</v>
       </c>
-    </row>
-    <row r="27" spans="1:12" ht="15" customHeight="1">
+      <c r="M26" s="18">
+        <v>1023.9546043670927</v>
+      </c>
+      <c r="N26" s="22">
+        <v>1211.6677865016152</v>
+      </c>
+    </row>
+    <row r="27" spans="1:14" ht="15" customHeight="1">
       <c r="A27" s="10" t="s">
         <v>0</v>
       </c>
@@ -1639,11 +1779,17 @@
       <c r="K27" s="15">
         <v>327.59981624100936</v>
       </c>
-      <c r="L27" s="23">
+      <c r="L27" s="15">
         <v>355.77460429594117</v>
       </c>
-    </row>
-    <row r="28" spans="1:12" ht="15" customHeight="1">
+      <c r="M27" s="19">
+        <v>403.36744600952358</v>
+      </c>
+      <c r="N27" s="23">
+        <v>425.01499729491235</v>
+      </c>
+    </row>
+    <row r="28" spans="1:14" ht="15" customHeight="1">
       <c r="A28" s="10" t="s">
         <v>1</v>
       </c>
@@ -1677,11 +1823,17 @@
       <c r="K28" s="15">
         <v>26.671740318368204</v>
       </c>
-      <c r="L28" s="23">
+      <c r="L28" s="15">
         <v>28.383893547870706</v>
       </c>
-    </row>
-    <row r="29" spans="1:12" ht="15" customHeight="1">
+      <c r="M28" s="19">
+        <v>46.824168656988164</v>
+      </c>
+      <c r="N28" s="23">
+        <v>62.945891847269884</v>
+      </c>
+    </row>
+    <row r="29" spans="1:14" ht="15" customHeight="1">
       <c r="A29" s="10" t="s">
         <v>2</v>
       </c>
@@ -1715,11 +1867,17 @@
       <c r="K29" s="15">
         <v>20.854262728828882</v>
       </c>
-      <c r="L29" s="23">
+      <c r="L29" s="15">
         <v>22.096891769534334</v>
       </c>
-    </row>
-    <row r="30" spans="1:12" ht="15" customHeight="1">
+      <c r="M29" s="19">
+        <v>36.704989002223037</v>
+      </c>
+      <c r="N29" s="23">
+        <v>47.455957272233555</v>
+      </c>
+    </row>
+    <row r="30" spans="1:14" ht="15" customHeight="1">
       <c r="A30" s="10" t="s">
         <v>3</v>
       </c>
@@ -1753,11 +1911,17 @@
       <c r="K30" s="15">
         <v>86.309690916894894</v>
       </c>
-      <c r="L30" s="23">
+      <c r="L30" s="15">
         <v>100.72065707365155</v>
       </c>
-    </row>
-    <row r="31" spans="1:12" ht="15" customHeight="1">
+      <c r="M30" s="19">
+        <v>119.03658634181905</v>
+      </c>
+      <c r="N30" s="23">
+        <v>170.91173945590432</v>
+      </c>
+    </row>
+    <row r="31" spans="1:14" ht="15" customHeight="1">
       <c r="A31" s="11" t="s">
         <v>17</v>
       </c>
@@ -1791,11 +1955,17 @@
       <c r="K31" s="15">
         <v>107.22425421969926</v>
       </c>
-      <c r="L31" s="23">
+      <c r="L31" s="15">
         <v>103.46885403268799</v>
       </c>
-    </row>
-    <row r="32" spans="1:12" ht="15" customHeight="1">
+      <c r="M31" s="19">
+        <v>134.75545773050771</v>
+      </c>
+      <c r="N31" s="23">
+        <v>148.20647558198905</v>
+      </c>
+    </row>
+    <row r="32" spans="1:14" ht="15" customHeight="1">
       <c r="A32" s="10" t="s">
         <v>4</v>
       </c>
@@ -1829,11 +1999,17 @@
       <c r="K32" s="15">
         <v>79.190133716783691</v>
       </c>
-      <c r="L32" s="23">
+      <c r="L32" s="15">
         <v>89.061701407810091</v>
       </c>
-    </row>
-    <row r="33" spans="1:12" ht="15" customHeight="1">
+      <c r="M32" s="19">
+        <v>106.46442983728367</v>
+      </c>
+      <c r="N32" s="23">
+        <v>144.57979682388176</v>
+      </c>
+    </row>
+    <row r="33" spans="1:14" ht="15" customHeight="1">
       <c r="A33" s="10" t="s">
         <v>5</v>
       </c>
@@ -1867,11 +2043,17 @@
       <c r="K33" s="15">
         <v>20.352014030702097</v>
       </c>
-      <c r="L33" s="23">
+      <c r="L33" s="15">
         <v>24.29013364610697</v>
       </c>
-    </row>
-    <row r="34" spans="1:12" ht="15" customHeight="1">
+      <c r="M33" s="19">
+        <v>35.396688062156628</v>
+      </c>
+      <c r="N33" s="23">
+        <v>51.69326186327207</v>
+      </c>
+    </row>
+    <row r="34" spans="1:14" ht="15" customHeight="1">
       <c r="A34" s="10" t="s">
         <v>6</v>
       </c>
@@ -1905,11 +2087,17 @@
       <c r="K34" s="15">
         <v>109.10797069042488</v>
       </c>
-      <c r="L34" s="23">
+      <c r="L34" s="15">
         <v>90.532901840970624</v>
       </c>
-    </row>
-    <row r="35" spans="1:12" ht="15" customHeight="1">
+      <c r="M34" s="19">
+        <v>141.40483872659078</v>
+      </c>
+      <c r="N34" s="23">
+        <v>160.8596663621523</v>
+      </c>
+    </row>
+    <row r="35" spans="1:14" ht="15" customHeight="1">
       <c r="A35" s="9" t="s">
         <v>13</v>
       </c>
@@ -1943,11 +2131,17 @@
       <c r="K35" s="14">
         <v>70.123004590593297</v>
       </c>
-      <c r="L35" s="22">
+      <c r="L35" s="14">
         <v>78.740862197328028</v>
       </c>
-    </row>
-    <row r="36" spans="1:12" ht="15" customHeight="1">
+      <c r="M35" s="18">
+        <v>70.525007967314664</v>
+      </c>
+      <c r="N35" s="22">
+        <v>100.44334444243582</v>
+      </c>
+    </row>
+    <row r="36" spans="1:14" ht="15" customHeight="1">
       <c r="A36" s="9" t="s">
         <v>14</v>
       </c>
@@ -1981,11 +2175,17 @@
       <c r="K36" s="14">
         <v>235.71968162959951</v>
       </c>
-      <c r="L36" s="22">
+      <c r="L36" s="14">
         <v>282.30413130391514</v>
       </c>
-    </row>
-    <row r="37" spans="1:12" ht="15" customHeight="1">
+      <c r="M36" s="18">
+        <v>341.90661239267274</v>
+      </c>
+      <c r="N36" s="22">
+        <v>429.48847559821439</v>
+      </c>
+    </row>
+    <row r="37" spans="1:14" ht="15" customHeight="1">
       <c r="A37" s="10" t="s">
         <v>7</v>
       </c>
@@ -2019,11 +2219,17 @@
       <c r="K37" s="15">
         <v>11.477221873460032</v>
       </c>
-      <c r="L37" s="23">
+      <c r="L37" s="15">
         <v>11.621926197900923</v>
       </c>
-    </row>
-    <row r="38" spans="1:12" ht="15" customHeight="1">
+      <c r="M37" s="19">
+        <v>16.463543702468499</v>
+      </c>
+      <c r="N37" s="23">
+        <v>20.275667692036198</v>
+      </c>
+    </row>
+    <row r="38" spans="1:14" ht="15" customHeight="1">
       <c r="A38" s="10" t="s">
         <v>8</v>
       </c>
@@ -2057,11 +2263,17 @@
       <c r="K38" s="15">
         <v>16.64016871915177</v>
       </c>
-      <c r="L38" s="23">
+      <c r="L38" s="15">
         <v>11.352084548524811</v>
       </c>
-    </row>
-    <row r="39" spans="1:12" ht="15" customHeight="1">
+      <c r="M38" s="19">
+        <v>25.636283314956604</v>
+      </c>
+      <c r="N38" s="23">
+        <v>34.426477671635631</v>
+      </c>
+    </row>
+    <row r="39" spans="1:14" ht="15" customHeight="1">
       <c r="A39" s="10" t="s">
         <v>9</v>
       </c>
@@ -2095,11 +2307,17 @@
       <c r="K39" s="15">
         <v>191.87253135030616</v>
       </c>
-      <c r="L39" s="23">
+      <c r="L39" s="15">
         <v>206.54622039502195</v>
       </c>
-    </row>
-    <row r="40" spans="1:12" ht="15" customHeight="1">
+      <c r="M39" s="19">
+        <v>280.60264339925197</v>
+      </c>
+      <c r="N39" s="23">
+        <v>327.40990763633141</v>
+      </c>
+    </row>
+    <row r="40" spans="1:14" ht="15" customHeight="1">
       <c r="A40" s="10" t="s">
         <v>10</v>
       </c>
@@ -2133,11 +2351,17 @@
       <c r="K40" s="15">
         <v>15.729759686681502</v>
       </c>
-      <c r="L40" s="23">
+      <c r="L40" s="15">
         <v>52.783900162467454</v>
       </c>
-    </row>
-    <row r="41" spans="1:12" ht="15" customHeight="1">
+      <c r="M40" s="19">
+        <v>19.204141975995629</v>
+      </c>
+      <c r="N40" s="23">
+        <v>47.376422598211185</v>
+      </c>
+    </row>
+    <row r="41" spans="1:14" ht="15" customHeight="1">
       <c r="A41" s="9" t="s">
         <v>15</v>
       </c>
@@ -2171,11 +2395,17 @@
       <c r="K41" s="4">
         <v>1013.0295644923107</v>
       </c>
-      <c r="L41" s="22">
+      <c r="L41" s="4">
         <v>1096.6337689184886</v>
       </c>
-    </row>
-    <row r="42" spans="1:12" ht="15" customHeight="1">
+      <c r="M41" s="18">
+        <v>1365.8612167597655</v>
+      </c>
+      <c r="N41" s="22">
+        <v>1641.15626209983</v>
+      </c>
+    </row>
+    <row r="42" spans="1:14" ht="15" customHeight="1">
       <c r="A42" s="12" t="s">
         <v>16</v>
       </c>
@@ -2209,11 +2439,17 @@
       <c r="K42" s="6">
         <v>1083.1525690829042</v>
       </c>
-      <c r="L42" s="24">
+      <c r="L42" s="6">
         <v>1175.3746311158168</v>
       </c>
-    </row>
-    <row r="43" spans="1:12">
+      <c r="M42" s="20">
+        <v>1436.3862247270797</v>
+      </c>
+      <c r="N42" s="24">
+        <v>1741.5996065422655</v>
+      </c>
+    </row>
+    <row r="43" spans="1:14">
       <c r="A43" s="2"/>
       <c r="B43" s="2"/>
       <c r="C43" s="2"/>
@@ -2224,7 +2460,7 @@
       <c r="H43" s="2"/>
       <c r="I43" s="2"/>
     </row>
-    <row r="44" spans="1:12">
+    <row r="44" spans="1:14">
       <c r="A44" s="2"/>
       <c r="B44" s="2"/>
       <c r="C44" s="2"/>
@@ -2235,23 +2471,25 @@
       <c r="H44" s="2"/>
       <c r="I44" s="2"/>
     </row>
-    <row r="45" spans="1:12" ht="30" customHeight="1">
-      <c r="A45" s="17" t="s">
+    <row r="45" spans="1:14" ht="30" customHeight="1">
+      <c r="A45" s="26" t="s">
         <v>21</v>
       </c>
-      <c r="B45" s="17"/>
-      <c r="C45" s="17"/>
-      <c r="D45" s="17"/>
-      <c r="E45" s="17"/>
-      <c r="F45" s="17"/>
-      <c r="G45" s="17"/>
-      <c r="H45" s="17"/>
-      <c r="I45" s="17"/>
-      <c r="J45" s="17"/>
-      <c r="K45" s="17"/>
-      <c r="L45" s="17"/>
-    </row>
-    <row r="46" spans="1:12" ht="15" customHeight="1">
+      <c r="B45" s="26"/>
+      <c r="C45" s="26"/>
+      <c r="D45" s="26"/>
+      <c r="E45" s="26"/>
+      <c r="F45" s="26"/>
+      <c r="G45" s="26"/>
+      <c r="H45" s="26"/>
+      <c r="I45" s="26"/>
+      <c r="J45" s="26"/>
+      <c r="K45" s="26"/>
+      <c r="L45" s="26"/>
+      <c r="M45" s="26"/>
+      <c r="N45" s="26"/>
+    </row>
+    <row r="46" spans="1:14" ht="15" customHeight="1">
       <c r="A46" s="3"/>
       <c r="B46" s="7">
         <v>2011</v>
@@ -2286,8 +2524,14 @@
       <c r="L46" s="8">
         <v>2021</v>
       </c>
-    </row>
-    <row r="47" spans="1:12" ht="15" customHeight="1">
+      <c r="M46" s="8">
+        <v>2022</v>
+      </c>
+      <c r="N46" s="29">
+        <v>2023</v>
+      </c>
+    </row>
+    <row r="47" spans="1:14" ht="15" customHeight="1">
       <c r="A47" s="9" t="s">
         <v>11</v>
       </c>
@@ -2321,11 +2565,17 @@
       <c r="K47" s="13">
         <v>199.28593276197054</v>
       </c>
-      <c r="L47" s="25">
+      <c r="L47" s="13">
         <v>217.91169569194767</v>
       </c>
-    </row>
-    <row r="48" spans="1:12" ht="15" customHeight="1">
+      <c r="M47" s="21">
+        <v>282.06903177984378</v>
+      </c>
+      <c r="N47" s="21">
+        <v>342.06830250950338</v>
+      </c>
+    </row>
+    <row r="48" spans="1:14" ht="15" customHeight="1">
       <c r="A48" s="9" t="s">
         <v>12</v>
       </c>
@@ -2359,11 +2609,17 @@
       <c r="K48" s="14">
         <v>182.79550787427894</v>
       </c>
-      <c r="L48" s="26">
+      <c r="L48" s="14">
         <v>198.69870544618354</v>
       </c>
-    </row>
-    <row r="49" spans="1:12" ht="15" customHeight="1">
+      <c r="M48" s="22">
+        <v>263.89334308777507</v>
+      </c>
+      <c r="N48" s="22">
+        <v>315.88265136951128</v>
+      </c>
+    </row>
+    <row r="49" spans="1:14" ht="15" customHeight="1">
       <c r="A49" s="10" t="s">
         <v>0</v>
       </c>
@@ -2397,11 +2653,17 @@
       <c r="K49" s="15">
         <v>77.039770250640771</v>
       </c>
-      <c r="L49" s="27">
+      <c r="L49" s="15">
         <v>86.809996884444246</v>
       </c>
-    </row>
-    <row r="50" spans="1:12" ht="15" customHeight="1">
+      <c r="M49" s="23">
+        <v>103.95576460738233</v>
+      </c>
+      <c r="N49" s="23">
+        <v>110.80171125531825</v>
+      </c>
+    </row>
+    <row r="50" spans="1:14" ht="15" customHeight="1">
       <c r="A50" s="10" t="s">
         <v>1</v>
       </c>
@@ -2435,11 +2697,17 @@
       <c r="K50" s="15">
         <v>6.2722402286091956</v>
       </c>
-      <c r="L50" s="27">
+      <c r="L50" s="15">
         <v>6.9257492825694742</v>
       </c>
-    </row>
-    <row r="51" spans="1:12" ht="15" customHeight="1">
+      <c r="M50" s="23">
+        <v>12.067513883426541</v>
+      </c>
+      <c r="N50" s="23">
+        <v>16.410038651718835</v>
+      </c>
+    </row>
+    <row r="51" spans="1:14" ht="15" customHeight="1">
       <c r="A51" s="10" t="s">
         <v>2</v>
       </c>
@@ -2473,11 +2741,17 @@
       <c r="K51" s="15">
         <v>4.9041773826683883</v>
       </c>
-      <c r="L51" s="27">
+      <c r="L51" s="15">
         <v>5.3917032933400444</v>
       </c>
-    </row>
-    <row r="52" spans="1:12" ht="15" customHeight="1">
+      <c r="M51" s="23">
+        <v>9.4596012503735025</v>
+      </c>
+      <c r="N51" s="23">
+        <v>12.371801721091142</v>
+      </c>
+    </row>
+    <row r="52" spans="1:14" ht="15" customHeight="1">
       <c r="A52" s="10" t="s">
         <v>3</v>
       </c>
@@ -2511,11 +2785,17 @@
       <c r="K52" s="15">
         <v>20.296955092763682</v>
       </c>
-      <c r="L52" s="27">
+      <c r="L52" s="15">
         <v>24.57612157018881</v>
       </c>
-    </row>
-    <row r="53" spans="1:12" ht="15" customHeight="1">
+      <c r="M52" s="23">
+        <v>30.678081416427244</v>
+      </c>
+      <c r="N52" s="23">
+        <v>44.55681170280431</v>
+      </c>
+    </row>
+    <row r="53" spans="1:14" ht="15" customHeight="1">
       <c r="A53" s="11" t="s">
         <v>17</v>
       </c>
@@ -2549,11 +2829,17 @@
       <c r="K53" s="15">
         <v>25.215313015636141</v>
       </c>
-      <c r="L53" s="27">
+      <c r="L53" s="15">
         <v>25.246689302036657</v>
       </c>
-    </row>
-    <row r="54" spans="1:12" ht="15" customHeight="1">
+      <c r="M53" s="23">
+        <v>34.729145304060985</v>
+      </c>
+      <c r="N53" s="23">
+        <v>38.637533306170006</v>
+      </c>
+    </row>
+    <row r="54" spans="1:14" ht="15" customHeight="1">
       <c r="A54" s="10" t="s">
         <v>4</v>
       </c>
@@ -2587,11 +2873,17 @@
       <c r="K54" s="15">
         <v>18.622689651236843</v>
       </c>
-      <c r="L54" s="27">
+      <c r="L54" s="15">
         <v>21.731303832198517</v>
       </c>
-    </row>
-    <row r="55" spans="1:12" ht="15" customHeight="1">
+      <c r="M54" s="23">
+        <v>27.437988158723464</v>
+      </c>
+      <c r="N54" s="23">
+        <v>37.692055581550392</v>
+      </c>
+    </row>
+    <row r="55" spans="1:14" ht="15" customHeight="1">
       <c r="A55" s="10" t="s">
         <v>5</v>
       </c>
@@ -2625,11 +2917,17 @@
       <c r="K55" s="15">
         <v>4.7860664363426269</v>
       </c>
-      <c r="L55" s="27">
+      <c r="L55" s="15">
         <v>5.9268604354550227</v>
       </c>
-    </row>
-    <row r="56" spans="1:12" ht="15" customHeight="1">
+      <c r="M55" s="23">
+        <v>9.1224262356154959</v>
+      </c>
+      <c r="N55" s="23">
+        <v>13.476470033469077</v>
+      </c>
+    </row>
+    <row r="56" spans="1:14" ht="15" customHeight="1">
       <c r="A56" s="10" t="s">
         <v>6</v>
       </c>
@@ -2663,11 +2961,17 @@
       <c r="K56" s="15">
         <v>25.658295816381319</v>
       </c>
-      <c r="L56" s="27">
+      <c r="L56" s="15">
         <v>22.090280845950804</v>
       </c>
-    </row>
-    <row r="57" spans="1:12" ht="15" customHeight="1">
+      <c r="M56" s="23">
+        <v>36.442822231765504</v>
+      </c>
+      <c r="N56" s="23">
+        <v>41.936229117389281</v>
+      </c>
+    </row>
+    <row r="57" spans="1:14" ht="15" customHeight="1">
       <c r="A57" s="9" t="s">
         <v>13</v>
       </c>
@@ -2701,11 +3005,17 @@
       <c r="K57" s="14">
         <v>16.490424887691603</v>
       </c>
-      <c r="L57" s="26">
+      <c r="L57" s="14">
         <v>19.2129902457641</v>
       </c>
-    </row>
-    <row r="58" spans="1:12" ht="15" customHeight="1">
+      <c r="M57" s="22">
+        <v>18.175688692068693</v>
+      </c>
+      <c r="N57" s="22">
+        <v>26.185651139992071</v>
+      </c>
+    </row>
+    <row r="58" spans="1:14" ht="15" customHeight="1">
       <c r="A58" s="9" t="s">
         <v>14</v>
       </c>
@@ -2739,11 +3049,17 @@
       <c r="K58" s="14">
         <v>55.432845856478444</v>
       </c>
-      <c r="L58" s="26">
+      <c r="L58" s="14">
         <v>68.88299632138245</v>
       </c>
-    </row>
-    <row r="59" spans="1:12" ht="15" customHeight="1">
+      <c r="M58" s="22">
+        <v>88.116092826095382</v>
+      </c>
+      <c r="N58" s="22">
+        <v>111.96795022199989</v>
+      </c>
+    </row>
+    <row r="59" spans="1:14" ht="15" customHeight="1">
       <c r="A59" s="10" t="s">
         <v>7</v>
       </c>
@@ -2777,11 +3093,17 @@
       <c r="K59" s="15">
         <v>2.6990324548793327</v>
       </c>
-      <c r="L59" s="27">
+      <c r="L59" s="15">
         <v>2.8357824444147095</v>
       </c>
-    </row>
-    <row r="60" spans="1:12" ht="15" customHeight="1">
+      <c r="M59" s="23">
+        <v>4.2429806635827498</v>
+      </c>
+      <c r="N59" s="23">
+        <v>5.2858809487207532</v>
+      </c>
+    </row>
+    <row r="60" spans="1:14" ht="15" customHeight="1">
       <c r="A60" s="10" t="s">
         <v>8</v>
       </c>
@@ -2815,11 +3137,17 @@
       <c r="K60" s="15">
         <v>3.9131730590234537</v>
       </c>
-      <c r="L60" s="27">
+      <c r="L60" s="15">
         <v>2.7699403284829374</v>
       </c>
-    </row>
-    <row r="61" spans="1:12" ht="15" customHeight="1">
+      <c r="M60" s="23">
+        <v>6.6069769885070748</v>
+      </c>
+      <c r="N60" s="23">
+        <v>8.9750071474851794</v>
+      </c>
+    </row>
+    <row r="61" spans="1:14" ht="15" customHeight="1">
       <c r="A61" s="10" t="s">
         <v>9</v>
       </c>
@@ -2853,11 +3181,17 @@
       <c r="K61" s="15">
         <v>45.121562955217712</v>
       </c>
-      <c r="L61" s="27">
+      <c r="L61" s="15">
         <v>50.397854519348414</v>
       </c>
-    </row>
-    <row r="62" spans="1:12" ht="15" customHeight="1">
+      <c r="M61" s="23">
+        <v>72.316848159167435</v>
+      </c>
+      <c r="N61" s="23">
+        <v>85.355995150633888</v>
+      </c>
+    </row>
+    <row r="62" spans="1:14" ht="15" customHeight="1">
       <c r="A62" s="10" t="s">
         <v>10</v>
       </c>
@@ -2891,11 +3225,17 @@
       <c r="K62" s="15">
         <v>3.6990773873579403</v>
       </c>
-      <c r="L62" s="27">
+      <c r="L62" s="15">
         <v>12.879419029136395</v>
       </c>
-    </row>
-    <row r="63" spans="1:12" ht="15" customHeight="1">
+      <c r="M62" s="23">
+        <v>4.9492870148381209</v>
+      </c>
+      <c r="N62" s="23">
+        <v>12.351066975160052</v>
+      </c>
+    </row>
+    <row r="63" spans="1:14" ht="15" customHeight="1">
       <c r="A63" s="9" t="s">
         <v>15</v>
       </c>
@@ -2929,11 +3269,17 @@
       <c r="K63" s="14">
         <v>238.22835373075745</v>
       </c>
-      <c r="L63" s="26">
+      <c r="L63" s="14">
         <v>267.58170176756607</v>
       </c>
-    </row>
-    <row r="64" spans="1:12" ht="15" customHeight="1">
+      <c r="M63" s="22">
+        <v>352.0094359138705</v>
+      </c>
+      <c r="N63" s="22">
+        <v>427.85060159151118</v>
+      </c>
+    </row>
+    <row r="64" spans="1:14" ht="15" customHeight="1">
       <c r="A64" s="12" t="s">
         <v>16</v>
       </c>
@@ -2967,66 +3313,78 @@
       <c r="K64" s="16">
         <v>254.71877861844905</v>
       </c>
-      <c r="L64" s="28">
+      <c r="L64" s="16">
         <v>286.79469201333012</v>
       </c>
-    </row>
-    <row r="65" spans="1:12" ht="15" customHeight="1">
-      <c r="A65" s="18" t="s">
+      <c r="M64" s="24">
+        <v>370.18512460593911</v>
+      </c>
+      <c r="N64" s="24">
+        <v>454.03625273150323</v>
+      </c>
+    </row>
+    <row r="65" spans="1:14" ht="15" customHeight="1">
+      <c r="A65" s="27" t="s">
         <v>22</v>
       </c>
-      <c r="B65" s="18"/>
-      <c r="C65" s="18"/>
-      <c r="D65" s="18"/>
-      <c r="E65" s="18"/>
-      <c r="F65" s="18"/>
-      <c r="G65" s="18"/>
-      <c r="H65" s="18"/>
-      <c r="I65" s="18"/>
-      <c r="J65" s="18"/>
-      <c r="K65" s="18"/>
-      <c r="L65" s="18"/>
-    </row>
-    <row r="66" spans="1:12" ht="15" customHeight="1">
-      <c r="A66" s="19" t="s">
+      <c r="B65" s="27"/>
+      <c r="C65" s="27"/>
+      <c r="D65" s="27"/>
+      <c r="E65" s="27"/>
+      <c r="F65" s="27"/>
+      <c r="G65" s="27"/>
+      <c r="H65" s="27"/>
+      <c r="I65" s="27"/>
+      <c r="J65" s="27"/>
+      <c r="K65" s="27"/>
+      <c r="L65" s="27"/>
+      <c r="M65" s="27"/>
+      <c r="N65" s="27"/>
+    </row>
+    <row r="66" spans="1:14" ht="15" customHeight="1">
+      <c r="A66" s="28" t="s">
         <v>20</v>
       </c>
-      <c r="B66" s="19"/>
-      <c r="C66" s="19"/>
-      <c r="D66" s="19"/>
-      <c r="E66" s="19"/>
-      <c r="F66" s="19"/>
-      <c r="G66" s="19"/>
-      <c r="H66" s="19"/>
-      <c r="I66" s="19"/>
-      <c r="J66" s="19"/>
-      <c r="K66" s="19"/>
-      <c r="L66" s="19"/>
-    </row>
-    <row r="67" spans="1:12" ht="45" customHeight="1">
-      <c r="A67" s="20" t="s">
+      <c r="B66" s="28"/>
+      <c r="C66" s="28"/>
+      <c r="D66" s="28"/>
+      <c r="E66" s="28"/>
+      <c r="F66" s="28"/>
+      <c r="G66" s="28"/>
+      <c r="H66" s="28"/>
+      <c r="I66" s="28"/>
+      <c r="J66" s="28"/>
+      <c r="K66" s="28"/>
+      <c r="L66" s="28"/>
+      <c r="M66" s="28"/>
+      <c r="N66" s="28"/>
+    </row>
+    <row r="67" spans="1:14" ht="45" customHeight="1">
+      <c r="A67" s="25" t="s">
         <v>23</v>
       </c>
-      <c r="B67" s="20"/>
-      <c r="C67" s="20"/>
-      <c r="D67" s="20"/>
-      <c r="E67" s="20"/>
-      <c r="F67" s="20"/>
-      <c r="G67" s="20"/>
-      <c r="H67" s="20"/>
-      <c r="I67" s="20"/>
-      <c r="J67" s="20"/>
-      <c r="K67" s="20"/>
-      <c r="L67" s="20"/>
+      <c r="B67" s="25"/>
+      <c r="C67" s="25"/>
+      <c r="D67" s="25"/>
+      <c r="E67" s="25"/>
+      <c r="F67" s="25"/>
+      <c r="G67" s="25"/>
+      <c r="H67" s="25"/>
+      <c r="I67" s="25"/>
+      <c r="J67" s="25"/>
+      <c r="K67" s="25"/>
+      <c r="L67" s="25"/>
+      <c r="M67" s="25"/>
+      <c r="N67" s="25"/>
     </row>
   </sheetData>
   <mergeCells count="6">
-    <mergeCell ref="A67:L67"/>
-    <mergeCell ref="A1:L1"/>
-    <mergeCell ref="A23:L23"/>
-    <mergeCell ref="A45:L45"/>
-    <mergeCell ref="A65:L65"/>
-    <mergeCell ref="A66:L66"/>
+    <mergeCell ref="A67:N67"/>
+    <mergeCell ref="A1:N1"/>
+    <mergeCell ref="A23:N23"/>
+    <mergeCell ref="A45:N45"/>
+    <mergeCell ref="A65:N65"/>
+    <mergeCell ref="A66:N66"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
